--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-medication-method-jhsi0003-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-medication-method-jhsi0003-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T11:05:16+00:00</t>
+    <t>2022-09-01T00:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-medication-method-jhsi0003-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-medication-method-jhsi0003-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:31:30+00:00</t>
+    <t>2022-09-02T09:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
